--- a/SCBAA/2018/NCR.xlsx
+++ b/SCBAA/2018/NCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CF0285-CCD3-4064-85C9-1D9D881B314D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B6580A-100C-4973-89E3-C0513815D7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="705" windowWidth="13125" windowHeight="12495" firstSheet="12" activeTab="15" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="10" activeTab="15" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Caloocan" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -908,21 +915,6 @@
     <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -995,6 +987,21 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1324,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="A103" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,54 +1344,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1398,22 +1405,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1725,7 +1732,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>5948467348.7120905</v>
       </c>
     </row>
@@ -2302,7 +2308,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>4674477695.4969511</v>
       </c>
     </row>
@@ -2469,7 +2474,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="21">
-        <f>SUM(18539859.88+19132336)</f>
         <v>37672195.879999995</v>
       </c>
     </row>
@@ -2478,7 +2482,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="35">
-        <f>SUM(E95:E110)</f>
         <v>38504013.859999992</v>
       </c>
     </row>
@@ -2490,7 +2493,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>4712981709.3569508</v>
       </c>
     </row>
@@ -2513,7 +2515,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="H19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,54 +2527,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2586,22 +2588,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2660,7 +2662,6 @@
         <v>84</v>
       </c>
       <c r="E13" s="72">
-        <f>SUM(29378289.96+887980.3+284712.04+92835956.43)</f>
         <v>123386938.73</v>
       </c>
     </row>
@@ -2672,7 +2673,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>4110147973.0900002</v>
       </c>
     </row>
@@ -2726,7 +2726,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>539939816.85000002</v>
       </c>
     </row>
@@ -2917,7 +2916,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>5869791993.9400005</v>
       </c>
     </row>
@@ -3494,7 +3492,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>6078427809.6599998</v>
       </c>
     </row>
@@ -3606,7 +3603,6 @@
         <v>12</v>
       </c>
       <c r="E104" s="72">
-        <f>SUM(178422284.48+14392052.8)</f>
         <v>192814337.28</v>
       </c>
     </row>
@@ -3662,7 +3658,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="72">
-        <f>SUM(262813226.52+1140988831.03)</f>
         <v>1403802057.55</v>
       </c>
     </row>
@@ -3671,7 +3666,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>3150755075.1199999</v>
       </c>
     </row>
@@ -3683,7 +3677,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>9229182884.7799988</v>
       </c>
     </row>
@@ -3705,7 +3698,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="G23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3717,54 +3710,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3778,22 +3771,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3829,7 +3822,7 @@
       <c r="D11" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="110">
         <v>1535069183.72</v>
       </c>
     </row>
@@ -3840,7 +3833,7 @@
       <c r="D12" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="115">
+      <c r="E12" s="110">
         <v>1743804797.3299999</v>
       </c>
     </row>
@@ -3851,8 +3844,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="116">
-        <f>SUM(29484568.39+17051161.11+23770033.04)</f>
+      <c r="E13" s="111">
         <v>70305762.539999992</v>
       </c>
     </row>
@@ -3864,7 +3856,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>3349179743.5900002</v>
       </c>
     </row>
@@ -3884,7 +3875,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="115">
+      <c r="E16" s="110">
         <v>234806044.49000001</v>
       </c>
     </row>
@@ -3895,7 +3886,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="115">
+      <c r="E17" s="110">
         <v>185775572.33000001</v>
       </c>
     </row>
@@ -3906,7 +3897,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="115">
+      <c r="E18" s="110">
         <v>87450.53</v>
       </c>
     </row>
@@ -3918,7 +3909,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>420669067.35000002</v>
       </c>
     </row>
@@ -3938,7 +3928,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="115">
+      <c r="E21" s="110">
         <v>822667668</v>
       </c>
     </row>
@@ -3969,7 +3959,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="116">
+      <c r="E24" s="111">
         <v>178830924.97999999</v>
       </c>
     </row>
@@ -3980,7 +3970,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="116">
+      <c r="E25" s="111">
         <v>58679.27</v>
       </c>
     </row>
@@ -4002,7 +3992,7 @@
       <c r="D27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="116">
+      <c r="E27" s="111">
         <v>56100000</v>
       </c>
     </row>
@@ -4022,7 +4012,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="116">
+      <c r="E29" s="111">
         <v>21752439.260000002</v>
       </c>
     </row>
@@ -4033,7 +4023,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="116">
+      <c r="E30" s="111">
         <v>9412734.4600000009</v>
       </c>
     </row>
@@ -4064,7 +4054,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="117">
+      <c r="E33" s="112">
         <v>87607</v>
       </c>
     </row>
@@ -4109,7 +4099,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>4858758863.9100008</v>
       </c>
     </row>
@@ -4154,7 +4143,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="118">
+      <c r="E42" s="113">
         <v>661040311.09000003</v>
       </c>
     </row>
@@ -4165,7 +4154,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="118">
+      <c r="E43" s="113">
         <v>490783422.58999997</v>
       </c>
     </row>
@@ -4176,7 +4165,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="118">
+      <c r="E44" s="113">
         <v>35621398.07</v>
       </c>
     </row>
@@ -4187,7 +4176,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="119"/>
+      <c r="E45" s="114"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -4196,7 +4185,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="118">
+      <c r="E46" s="113">
         <v>52694822.130000003</v>
       </c>
     </row>
@@ -4207,7 +4196,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="118">
+      <c r="E47" s="113">
         <v>85562988.689999998</v>
       </c>
     </row>
@@ -4218,7 +4207,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="115">
+      <c r="E48" s="110">
         <v>1807820</v>
       </c>
     </row>
@@ -4229,7 +4218,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="120"/>
+      <c r="E49" s="115"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -4238,7 +4227,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="115">
+      <c r="E50" s="110">
         <v>317770745.76999998</v>
       </c>
     </row>
@@ -4249,7 +4238,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="115">
+      <c r="E51" s="110">
         <v>521330336.75999999</v>
       </c>
     </row>
@@ -4260,7 +4249,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="115">
+      <c r="E52" s="110">
         <v>78845797.5</v>
       </c>
     </row>
@@ -4271,7 +4260,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="120"/>
+      <c r="E53" s="115"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -4280,7 +4269,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="115">
+      <c r="E54" s="110">
         <v>2873692.52</v>
       </c>
     </row>
@@ -4291,7 +4280,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="115">
+      <c r="E55" s="110">
         <v>3762154.75</v>
       </c>
     </row>
@@ -4302,7 +4291,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="115">
+      <c r="E56" s="110">
         <v>0</v>
       </c>
     </row>
@@ -4313,7 +4302,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="120"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -4322,7 +4311,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="121">
+      <c r="E58" s="116">
         <v>33200100.550000001</v>
       </c>
     </row>
@@ -4333,7 +4322,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="115">
+      <c r="E59" s="110">
         <v>542649689.38999999</v>
       </c>
     </row>
@@ -4344,7 +4333,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="115">
+      <c r="E60" s="110">
         <v>34170812.990000002</v>
       </c>
     </row>
@@ -4355,7 +4344,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="120"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -4364,7 +4353,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="115">
+      <c r="E62" s="110">
         <v>70918194.680000007</v>
       </c>
     </row>
@@ -4375,7 +4364,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="115">
+      <c r="E63" s="110">
         <v>365262784.37</v>
       </c>
     </row>
@@ -4386,7 +4375,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="115">
+      <c r="E64" s="110">
         <v>25632725</v>
       </c>
     </row>
@@ -4397,7 +4386,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="120"/>
+      <c r="E65" s="115"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -4406,7 +4395,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="115">
+      <c r="E66" s="110">
         <v>156610812.44999999</v>
       </c>
     </row>
@@ -4417,7 +4406,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="115">
+      <c r="E67" s="110">
         <v>170162121.53</v>
       </c>
     </row>
@@ -4428,7 +4417,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="115">
+      <c r="E68" s="110">
         <v>3038162.56</v>
       </c>
     </row>
@@ -4439,7 +4428,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="115"/>
+      <c r="E69" s="110"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
@@ -4448,7 +4437,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="115">
+      <c r="E70" s="110">
         <v>0</v>
       </c>
     </row>
@@ -4459,7 +4448,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="115">
+      <c r="E71" s="110">
         <v>139178805.46000001</v>
       </c>
     </row>
@@ -4470,7 +4459,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="115">
+      <c r="E72" s="110">
         <v>0</v>
       </c>
     </row>
@@ -4499,7 +4488,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="115">
+      <c r="E75" s="110">
         <v>60851717.960000001</v>
       </c>
     </row>
@@ -4510,7 +4499,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="115">
+      <c r="E76" s="110">
         <v>59948081</v>
       </c>
     </row>
@@ -4521,7 +4510,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="115"/>
+      <c r="E77" s="110"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -4530,7 +4519,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="115">
+      <c r="E78" s="110">
         <v>37826599.25</v>
       </c>
     </row>
@@ -4541,7 +4530,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="115">
+      <c r="E79" s="110">
         <v>0</v>
       </c>
     </row>
@@ -4552,7 +4541,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="115"/>
+      <c r="E80" s="110"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -4561,7 +4550,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="115">
+      <c r="E81" s="110">
         <v>0</v>
       </c>
     </row>
@@ -4572,7 +4561,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="115">
+      <c r="E82" s="110">
         <v>72625225.159999996</v>
       </c>
     </row>
@@ -4665,8 +4654,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="115">
-        <f>SUM(249052762+108811351.95)</f>
+      <c r="E91" s="110">
         <v>357864113.94999999</v>
       </c>
     </row>
@@ -4687,7 +4675,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>4382033436.1700001</v>
       </c>
     </row>
@@ -4718,7 +4705,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="118">
+      <c r="E96" s="113">
         <v>20088888.879999999</v>
       </c>
       <c r="F96" s="10"/>
@@ -4798,7 +4785,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="118">
+      <c r="E104" s="113">
         <v>323055363.69999999</v>
       </c>
     </row>
@@ -4853,8 +4840,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="118">
-        <f>SUM(590147538.96+86602769.34)</f>
+      <c r="E110" s="113">
         <v>676750308.30000007</v>
       </c>
     </row>
@@ -4863,7 +4849,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>1019894560.8800001</v>
       </c>
     </row>
@@ -4875,7 +4860,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>5401927997.0500002</v>
       </c>
     </row>
@@ -4909,54 +4893,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4970,22 +4954,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -5021,7 +5005,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="117">
         <v>1643053187</v>
       </c>
     </row>
@@ -5032,7 +5016,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="117">
         <v>6095386553.7300005</v>
       </c>
     </row>
@@ -5043,7 +5027,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="117">
         <v>148724610.76999998</v>
       </c>
     </row>
@@ -5075,7 +5059,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="123">
+      <c r="E16" s="118">
         <v>854668631.0200001</v>
       </c>
     </row>
@@ -5086,7 +5070,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="123">
+      <c r="E17" s="118">
         <v>1119935261.9099998</v>
       </c>
     </row>
@@ -5097,7 +5081,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="123">
+      <c r="E18" s="118">
         <v>47614866.310000002</v>
       </c>
     </row>
@@ -5129,7 +5113,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="123">
+      <c r="E21" s="118">
         <v>1359000222</v>
       </c>
     </row>
@@ -5140,7 +5124,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="123">
+      <c r="E22" s="118">
         <v>11001562.539999999</v>
       </c>
     </row>
@@ -5160,7 +5144,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="123">
+      <c r="E24" s="118">
         <v>53312072.079999998</v>
       </c>
     </row>
@@ -5213,7 +5197,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="123">
+      <c r="E29" s="118">
         <v>3060247</v>
       </c>
     </row>
@@ -6086,7 +6070,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="G23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6098,54 +6082,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -6159,22 +6143,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -6244,7 +6228,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>12555629455.4</v>
       </c>
     </row>
@@ -6298,7 +6281,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>1393121536.5999999</v>
       </c>
     </row>
@@ -6489,7 +6471,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>19101130312.919998</v>
       </c>
     </row>
@@ -6557,7 +6538,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="77">
-        <f>SUM(92981644.7+594046099.99)</f>
         <v>687027744.69000006</v>
       </c>
     </row>
@@ -7067,7 +7047,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E42:E92)</f>
         <v>12936994529.910002</v>
       </c>
     </row>
@@ -7242,7 +7221,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>1949436520.9100001</v>
       </c>
     </row>
@@ -7254,7 +7232,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>14886431050.820002</v>
       </c>
     </row>
@@ -7276,7 +7253,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7288,54 +7265,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7349,22 +7326,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7434,7 +7411,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>1246117386</v>
       </c>
     </row>
@@ -7488,7 +7464,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>253632445</v>
       </c>
     </row>
@@ -7679,7 +7654,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1929618632</v>
       </c>
     </row>
@@ -8194,7 +8168,6 @@
         <v>49</v>
       </c>
       <c r="E87" s="82">
-        <f>SUM(1160078+17124701)</f>
         <v>18284779</v>
       </c>
     </row>
@@ -8257,7 +8230,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1592694265</v>
       </c>
     </row>
@@ -8424,7 +8396,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="82">
-        <f>SUM(20610000+41775100)</f>
         <v>62385100</v>
       </c>
     </row>
@@ -8433,7 +8404,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>202956579</v>
       </c>
     </row>
@@ -8445,7 +8415,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1795650844</v>
       </c>
     </row>
@@ -8479,54 +8448,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -8540,22 +8509,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8591,7 +8560,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="117">
         <v>2374898729</v>
       </c>
     </row>
@@ -8602,7 +8571,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="117">
         <v>5856724386</v>
       </c>
     </row>
@@ -8613,7 +8582,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="117">
         <v>548829564</v>
       </c>
     </row>
@@ -8645,7 +8614,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="123">
+      <c r="E16" s="118">
         <v>418793690</v>
       </c>
     </row>
@@ -8656,7 +8625,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="123">
+      <c r="E17" s="118">
         <v>183562433</v>
       </c>
     </row>
@@ -8667,7 +8636,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="122">
+      <c r="E18" s="117">
         <v>470216741</v>
       </c>
     </row>
@@ -8699,7 +8668,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="122">
+      <c r="E21" s="117">
         <v>1418245227</v>
       </c>
     </row>
@@ -8730,7 +8699,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="117">
         <v>27900</v>
       </c>
     </row>
@@ -8794,7 +8763,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="122">
+      <c r="E30" s="117">
         <v>4879777</v>
       </c>
     </row>
@@ -8915,7 +8884,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="122">
+      <c r="E42" s="117">
         <v>1143301669.9400001</v>
       </c>
     </row>
@@ -8926,7 +8895,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="122">
+      <c r="E43" s="117">
         <v>2036907607.2</v>
       </c>
     </row>
@@ -8937,7 +8906,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="122">
+      <c r="E44" s="117">
         <v>408492400.58999997</v>
       </c>
     </row>
@@ -8957,7 +8926,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="122">
+      <c r="E46" s="117">
         <v>17047828.260000002</v>
       </c>
     </row>
@@ -8968,7 +8937,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="122">
+      <c r="E47" s="117">
         <v>211260006</v>
       </c>
     </row>
@@ -8979,7 +8948,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="122">
+      <c r="E48" s="117">
         <v>70506458.799999997</v>
       </c>
     </row>
@@ -8999,7 +8968,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="122">
+      <c r="E50" s="117">
         <v>377892536.00999999</v>
       </c>
     </row>
@@ -9010,7 +8979,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="122">
+      <c r="E51" s="117">
         <v>550622535.09000003</v>
       </c>
     </row>
@@ -9021,7 +8990,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="122">
+      <c r="E52" s="117">
         <v>0</v>
       </c>
     </row>
@@ -9041,7 +9010,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="122">
+      <c r="E54" s="117">
         <v>1969977.14</v>
       </c>
     </row>
@@ -9125,7 +9094,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="122">
+      <c r="E62" s="117">
         <v>284509972.72000003</v>
       </c>
     </row>
@@ -9136,7 +9105,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="122">
+      <c r="E63" s="117">
         <v>2047797493.25</v>
       </c>
     </row>
@@ -9147,7 +9116,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="122">
+      <c r="E64" s="117">
         <v>0</v>
       </c>
     </row>
@@ -9167,7 +9136,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="122">
+      <c r="E66" s="117">
         <v>73074120.659999996</v>
       </c>
     </row>
@@ -9178,7 +9147,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="122">
+      <c r="E67" s="117">
         <v>348828902.89999998</v>
       </c>
     </row>
@@ -9189,7 +9158,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="122">
+      <c r="E68" s="117">
         <v>187707193.91</v>
       </c>
     </row>
@@ -9291,7 +9260,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="122">
+      <c r="E78" s="117">
         <v>398913516.08999997</v>
       </c>
     </row>
@@ -9478,7 +9447,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="122">
+      <c r="E96" s="117">
         <v>118113094.45999999</v>
       </c>
       <c r="F96" s="10"/>
@@ -9492,7 +9461,7 @@
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="123"/>
+      <c r="E97" s="118"/>
       <c r="F97" s="10"/>
       <c r="G97" s="8"/>
       <c r="H97" s="10"/>
@@ -9504,7 +9473,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="122">
+      <c r="E98" s="117">
         <v>409614232.17000002</v>
       </c>
     </row>
@@ -9514,7 +9483,7 @@
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="123"/>
+      <c r="E99" s="118"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
@@ -9522,7 +9491,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="122">
+      <c r="E100" s="117">
         <v>0</v>
       </c>
     </row>
@@ -9532,7 +9501,7 @@
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="123"/>
+      <c r="E101" s="118"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
@@ -9540,7 +9509,7 @@
       <c r="D102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="122">
+      <c r="E102" s="117">
         <v>0</v>
       </c>
     </row>
@@ -9550,7 +9519,7 @@
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="123"/>
+      <c r="E103" s="118"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
@@ -9558,7 +9527,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="122">
+      <c r="E104" s="117">
         <v>0</v>
       </c>
     </row>
@@ -9568,7 +9537,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="123"/>
+      <c r="E105" s="118"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -9576,7 +9545,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="122">
+      <c r="E106" s="117">
         <v>0</v>
       </c>
     </row>
@@ -9586,7 +9555,7 @@
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="123"/>
+      <c r="E107" s="118"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
@@ -9594,7 +9563,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="122">
+      <c r="E108" s="117">
         <v>334496281.75999999</v>
       </c>
     </row>
@@ -9605,7 +9574,7 @@
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="123"/>
+      <c r="E109" s="118"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
@@ -9613,7 +9582,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="122">
+      <c r="E110" s="117">
         <v>104617580.06</v>
       </c>
     </row>
@@ -9655,8 +9624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D048509-EC46-4FD9-8364-5BFF6F801023}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9668,54 +9637,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -9729,22 +9698,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -9780,7 +9749,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="120">
         <v>706082806</v>
       </c>
     </row>
@@ -9791,7 +9760,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="125">
+      <c r="E12" s="120">
         <v>1013766081</v>
       </c>
     </row>
@@ -9802,7 +9771,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="120">
         <v>95813300</v>
       </c>
     </row>
@@ -9814,7 +9783,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="46">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>1815662187</v>
       </c>
     </row>
@@ -9834,7 +9802,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="125">
+      <c r="E16" s="120">
         <v>407649692</v>
       </c>
     </row>
@@ -9845,7 +9813,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="120">
         <v>113839583</v>
       </c>
     </row>
@@ -9856,7 +9824,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18" s="120">
         <v>3456884</v>
       </c>
     </row>
@@ -9868,7 +9836,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="46">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>524946159</v>
       </c>
     </row>
@@ -9888,7 +9855,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="125">
+      <c r="E21" s="120">
         <v>1159209984</v>
       </c>
     </row>
@@ -9899,7 +9866,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="125">
+      <c r="E22" s="120">
         <v>3062814</v>
       </c>
     </row>
@@ -9983,7 +9950,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="125">
+      <c r="E30" s="120">
         <v>1300000</v>
       </c>
     </row>
@@ -10047,7 +10014,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="125">
+      <c r="E36" s="120">
         <v>375197123</v>
       </c>
     </row>
@@ -10059,7 +10026,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="46">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>3879378267</v>
       </c>
     </row>
@@ -10104,7 +10070,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="125">
+      <c r="E42" s="120">
         <v>536412952</v>
       </c>
     </row>
@@ -10115,7 +10081,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="125">
+      <c r="E43" s="120">
         <v>1205050798</v>
       </c>
     </row>
@@ -10126,7 +10092,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="125">
+      <c r="E44" s="120">
         <v>63222213</v>
       </c>
     </row>
@@ -10137,7 +10103,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="125"/>
+      <c r="E45" s="120"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -10146,7 +10112,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="125">
+      <c r="E46" s="120">
         <v>81282450</v>
       </c>
     </row>
@@ -10157,7 +10123,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="125">
+      <c r="E47" s="120">
         <v>51595476</v>
       </c>
     </row>
@@ -10168,7 +10134,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="125">
+      <c r="E48" s="120">
         <v>23222308</v>
       </c>
     </row>
@@ -10179,7 +10145,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="125"/>
+      <c r="E49" s="120"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -10188,7 +10154,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="125">
+      <c r="E50" s="120">
         <v>258315131</v>
       </c>
     </row>
@@ -10199,7 +10165,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="125">
+      <c r="E51" s="120">
         <v>153317787</v>
       </c>
     </row>
@@ -10210,7 +10176,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="125">
+      <c r="E52" s="120">
         <v>1303158</v>
       </c>
     </row>
@@ -10221,7 +10187,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="124"/>
+      <c r="E53" s="119"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -10230,7 +10196,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="125">
+      <c r="E54" s="120">
         <v>5634013</v>
       </c>
     </row>
@@ -10241,7 +10207,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="125">
+      <c r="E55" s="120">
         <v>5236600</v>
       </c>
     </row>
@@ -10252,7 +10218,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="125">
+      <c r="E56" s="120">
         <v>0</v>
       </c>
     </row>
@@ -10272,7 +10238,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="125">
+      <c r="E58" s="120">
         <v>4439732</v>
       </c>
     </row>
@@ -10283,7 +10249,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="125">
+      <c r="E59" s="120">
         <v>6225223</v>
       </c>
     </row>
@@ -10294,7 +10260,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="125">
+      <c r="E60" s="120">
         <v>0</v>
       </c>
     </row>
@@ -10305,7 +10271,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="124"/>
+      <c r="E61" s="119"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -10314,7 +10280,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="125">
+      <c r="E62" s="120">
         <v>33844759</v>
       </c>
     </row>
@@ -10325,7 +10291,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="125">
+      <c r="E63" s="120">
         <v>163212203</v>
       </c>
     </row>
@@ -10336,7 +10302,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="125">
+      <c r="E64" s="120">
         <v>0</v>
       </c>
     </row>
@@ -10347,7 +10313,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="124"/>
+      <c r="E65" s="119"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -10356,7 +10322,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="125">
+      <c r="E66" s="120">
         <v>62519703</v>
       </c>
     </row>
@@ -10367,7 +10333,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="125">
+      <c r="E67" s="120">
         <v>136004455</v>
       </c>
     </row>
@@ -10378,7 +10344,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="125">
+      <c r="E68" s="120">
         <v>22142233</v>
       </c>
     </row>
@@ -10449,8 +10415,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="125">
-        <f>SUM(81717+77911178)</f>
+      <c r="E75" s="120">
         <v>77992895</v>
       </c>
     </row>
@@ -10461,7 +10426,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="125">
+      <c r="E76" s="120">
         <v>247236385</v>
       </c>
     </row>
@@ -10481,8 +10446,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="125">
-        <f>SUM(12655073+89898528)</f>
+      <c r="E78" s="120">
         <v>102553601</v>
       </c>
     </row>
@@ -10493,7 +10457,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="125">
+      <c r="E79" s="120">
         <v>4873079</v>
       </c>
     </row>
@@ -10524,7 +10488,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="125">
+      <c r="E82" s="120">
         <v>45754630</v>
       </c>
     </row>
@@ -10617,7 +10581,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="125">
+      <c r="E91" s="120">
         <v>97563438</v>
       </c>
     </row>
@@ -10638,7 +10602,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>3388955222</v>
       </c>
     </row>
@@ -10813,7 +10776,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -10825,7 +10787,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>3388955222</v>
       </c>
     </row>
@@ -10846,8 +10807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13327B44-09BF-4213-8D66-B518ABAFE7D2}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F103" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10859,54 +10820,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -10920,22 +10881,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -11004,7 +10965,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>7297061647.0699997</v>
       </c>
     </row>
@@ -11047,7 +11007,6 @@
         <v>70</v>
       </c>
       <c r="E18" s="18">
-        <f>SUM(514933489.75+279338493.35+(5066024.15))</f>
         <v>799338007.25</v>
       </c>
     </row>
@@ -11059,7 +11018,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>1567082479.1300001</v>
       </c>
     </row>
@@ -11250,7 +11208,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>11958439812.310001</v>
       </c>
     </row>
@@ -11827,7 +11784,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>9909515460.1799984</v>
       </c>
     </row>
@@ -12003,7 +11959,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="35">
-        <f>SUM(E95:E110)</f>
         <v>494687577.67000002</v>
       </c>
     </row>
@@ -12015,7 +11970,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>10404203037.849998</v>
       </c>
     </row>
@@ -12037,7 +11991,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="G19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12049,54 +12003,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -12110,22 +12064,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -12184,7 +12138,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="45">
-        <f>SUM(13693857.82+19706189.06+(36129225.22))</f>
         <v>69529272.099999994</v>
       </c>
     </row>
@@ -12196,7 +12149,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="46">
-        <f>SUM(E11:E13)</f>
         <v>1552985009.4499998</v>
       </c>
     </row>
@@ -12250,7 +12202,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="46">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>320398054.73000002</v>
       </c>
     </row>
@@ -12441,7 +12392,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="46">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2977797213.29</v>
       </c>
     </row>
@@ -12509,7 +12459,6 @@
         <v>12</v>
       </c>
       <c r="E44" s="45">
-        <f>SUM(6722639+284000)</f>
         <v>7006639</v>
       </c>
     </row>
@@ -13021,7 +12970,6 @@
       <c r="C93" s="44"/>
       <c r="D93" s="8"/>
       <c r="E93" s="57">
-        <f>SUM(E41:E92)</f>
         <v>2663369887.3900008</v>
       </c>
     </row>
@@ -13199,7 +13147,6 @@
       <c r="C111" s="44"/>
       <c r="D111" s="44"/>
       <c r="E111" s="58">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -13211,7 +13158,6 @@
       <c r="C112" s="44"/>
       <c r="D112" s="44"/>
       <c r="E112" s="58">
-        <f>SUM(E93,E111)</f>
         <v>2663369887.3900008</v>
       </c>
     </row>
@@ -13234,7 +13180,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F82" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13246,54 +13192,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -13307,22 +13253,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -13358,7 +13304,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="89">
         <v>4830234747</v>
       </c>
     </row>
@@ -13369,7 +13315,7 @@
       <c r="D12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="89">
         <v>7316677704</v>
       </c>
     </row>
@@ -13380,8 +13326,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="95">
-        <f>SUM(210088083+98971988)</f>
+      <c r="E13" s="90">
         <v>309060071</v>
       </c>
     </row>
@@ -13393,7 +13338,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="46">
-        <f>SUM(E11:E13)</f>
         <v>12455972522</v>
       </c>
     </row>
@@ -13413,7 +13357,7 @@
       <c r="D16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="89">
         <v>1656143333</v>
       </c>
     </row>
@@ -13424,7 +13368,7 @@
       <c r="D17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="89">
         <v>548999766</v>
       </c>
     </row>
@@ -13435,7 +13379,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="90">
         <v>193468451</v>
       </c>
     </row>
@@ -13447,7 +13391,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="46">
-        <f>SUM(E16:E18)</f>
         <v>2398611550</v>
       </c>
     </row>
@@ -13467,7 +13410,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="94">
+      <c r="E21" s="89">
         <v>1389707781</v>
       </c>
     </row>
@@ -13489,7 +13432,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="96"/>
+      <c r="E23" s="91"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -13542,7 +13485,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="96"/>
+      <c r="E28" s="91"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -13551,7 +13494,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="95">
+      <c r="E29" s="90">
         <v>6454744000</v>
       </c>
     </row>
@@ -13638,7 +13581,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="46">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>22699035853</v>
       </c>
     </row>
@@ -13669,11 +13611,11 @@
     </row>
     <row r="41" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
       <c r="E41" s="48"/>
       <c r="F41" s="64"/>
     </row>
@@ -13684,8 +13626,7 @@
       <c r="D42" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="97">
-        <f>SUM(505082612+168474405+741051308)</f>
+      <c r="E42" s="92">
         <v>1414608325</v>
       </c>
       <c r="F42" s="64"/>
@@ -13697,8 +13638,7 @@
       <c r="D43" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="97">
-        <f>SUM(541843081+21515967+1607982593)</f>
+      <c r="E43" s="92">
         <v>2171341641</v>
       </c>
       <c r="F43" s="64"/>
@@ -13710,8 +13650,7 @@
       <c r="D44" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="97">
-        <f>SUM(20088185+678150+85068730+47987)</f>
+      <c r="E44" s="92">
         <v>105883052</v>
       </c>
     </row>
@@ -13731,7 +13670,7 @@
       <c r="D46" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="97">
+      <c r="E46" s="92">
         <v>456568641</v>
       </c>
     </row>
@@ -13742,7 +13681,7 @@
       <c r="D47" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="97">
+      <c r="E47" s="92">
         <v>333658092</v>
       </c>
     </row>
@@ -13753,7 +13692,7 @@
       <c r="D48" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="97">
+      <c r="E48" s="92">
         <v>2871927</v>
       </c>
     </row>
@@ -13764,7 +13703,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="98"/>
+      <c r="E49" s="93"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -13773,7 +13712,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="97">
+      <c r="E50" s="92">
         <v>1073371723</v>
       </c>
     </row>
@@ -13784,7 +13723,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="97">
+      <c r="E51" s="92">
         <v>2609434638</v>
       </c>
     </row>
@@ -13795,7 +13734,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="98">
+      <c r="E52" s="93">
         <v>53798645</v>
       </c>
     </row>
@@ -13806,7 +13745,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="98"/>
+      <c r="E53" s="93"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -13815,7 +13754,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="99">
+      <c r="E54" s="94">
         <v>6187905</v>
       </c>
     </row>
@@ -13826,7 +13765,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="100">
+      <c r="E55" s="95">
         <v>61054178</v>
       </c>
     </row>
@@ -13837,7 +13776,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="97">
+      <c r="E56" s="92">
         <v>81135</v>
       </c>
     </row>
@@ -13848,7 +13787,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="98"/>
+      <c r="E57" s="93"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -13857,7 +13796,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="98">
+      <c r="E58" s="93">
         <v>0</v>
       </c>
     </row>
@@ -13868,7 +13807,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="98">
+      <c r="E59" s="93">
         <v>0</v>
       </c>
     </row>
@@ -13879,7 +13818,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="98">
+      <c r="E60" s="93">
         <v>0</v>
       </c>
     </row>
@@ -13890,7 +13829,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="98"/>
+      <c r="E61" s="93"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -13899,7 +13838,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="100">
+      <c r="E62" s="95">
         <v>121164190</v>
       </c>
     </row>
@@ -13910,7 +13849,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="100">
+      <c r="E63" s="95">
         <v>919359392</v>
       </c>
     </row>
@@ -13921,7 +13860,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="98">
+      <c r="E64" s="93">
         <v>0</v>
       </c>
     </row>
@@ -13932,7 +13871,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="98"/>
+      <c r="E65" s="93"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -13941,7 +13880,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="100">
+      <c r="E66" s="95">
         <v>520877730</v>
       </c>
     </row>
@@ -13952,7 +13891,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="100">
+      <c r="E67" s="95">
         <v>693031927</v>
       </c>
     </row>
@@ -13963,7 +13902,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="97">
+      <c r="E68" s="92">
         <v>8730617</v>
       </c>
     </row>
@@ -13983,7 +13922,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="98">
+      <c r="E70" s="93">
         <v>0</v>
       </c>
     </row>
@@ -13994,7 +13933,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="98">
+      <c r="E71" s="93">
         <v>0</v>
       </c>
     </row>
@@ -14005,7 +13944,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="98">
+      <c r="E72" s="93">
         <v>0</v>
       </c>
     </row>
@@ -14016,7 +13955,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="101"/>
+      <c r="E73" s="96"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
@@ -14087,7 +14026,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="96"/>
+      <c r="E80" s="91"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -14096,7 +14035,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="97">
+      <c r="E81" s="92">
         <v>200000</v>
       </c>
     </row>
@@ -14180,7 +14119,7 @@
         <v>51</v>
       </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="96"/>
+      <c r="E89" s="91"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -14200,7 +14139,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="102">
+      <c r="E91" s="97">
         <v>36528300</v>
       </c>
       <c r="H91" s="10"/>
@@ -14228,7 +14167,6 @@
       <c r="C93" s="44"/>
       <c r="D93" s="8"/>
       <c r="E93" s="57">
-        <f>SUM(E41:E92)</f>
         <v>10588752058</v>
       </c>
       <c r="F93" s="10"/>
@@ -14280,8 +14218,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="103">
-        <f>SUM(17078974756+2073343021)</f>
+      <c r="E98" s="98">
         <v>19152317777</v>
       </c>
     </row>
@@ -14390,7 +14327,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="97">
+      <c r="E110" s="92">
         <v>2572893449</v>
       </c>
     </row>
@@ -14402,7 +14339,6 @@
       <c r="C111" s="44"/>
       <c r="D111" s="44"/>
       <c r="E111" s="58">
-        <f>SUM(E95:E110)</f>
         <v>21725211226</v>
       </c>
     </row>
@@ -14414,7 +14350,6 @@
       <c r="C112" s="44"/>
       <c r="D112" s="44"/>
       <c r="E112" s="58">
-        <f>SUM(E93,E111)</f>
         <v>32313963284</v>
       </c>
     </row>
@@ -14438,7 +14373,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="G24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14450,54 +14385,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -14511,22 +14446,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -14839,7 +14774,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1705759076.5699997</v>
       </c>
     </row>
@@ -15397,7 +15331,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="18">
-        <f>SUM(33531000+19860000+1050000)</f>
         <v>54441000</v>
       </c>
     </row>
@@ -15418,7 +15351,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1753916213.1499999</v>
       </c>
     </row>
@@ -15593,7 +15525,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="35">
-        <f>SUM(E95:E110)</f>
         <v>18554089.25</v>
       </c>
     </row>
@@ -15605,7 +15536,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1772470302.3999999</v>
       </c>
     </row>
@@ -15628,7 +15558,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15640,54 +15570,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -15701,22 +15631,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -15752,7 +15682,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="99">
         <v>1333949599</v>
       </c>
     </row>
@@ -15763,7 +15693,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="99">
         <v>2365069135</v>
       </c>
     </row>
@@ -15774,8 +15704,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="104">
-        <f>SUM(29977753+8936493)</f>
+      <c r="E13" s="99">
         <v>38914246</v>
       </c>
     </row>
@@ -15786,7 +15715,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="105">
+      <c r="E14" s="100">
         <v>3737932980</v>
       </c>
       <c r="G14" s="68"/>
@@ -15807,7 +15736,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="104">
+      <c r="E16" s="99">
         <v>226906010</v>
       </c>
     </row>
@@ -15818,7 +15747,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="99">
         <v>117940397</v>
       </c>
     </row>
@@ -15829,7 +15758,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="99">
         <v>4089515</v>
       </c>
     </row>
@@ -15840,7 +15769,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="105">
+      <c r="E19" s="100">
         <v>348935922</v>
       </c>
     </row>
@@ -15860,7 +15789,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="104">
+      <c r="E21" s="99">
         <v>810474168</v>
       </c>
     </row>
@@ -15944,7 +15873,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="104">
+      <c r="E29" s="99">
         <v>20830752</v>
       </c>
     </row>
@@ -16031,7 +15960,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>4918173822</v>
       </c>
     </row>
@@ -16076,7 +16004,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="104">
+      <c r="E42" s="99">
         <v>345221502</v>
       </c>
     </row>
@@ -16087,7 +16015,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="104">
+      <c r="E43" s="99">
         <v>862423440</v>
       </c>
     </row>
@@ -16098,7 +16026,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="104">
+      <c r="E44" s="99">
         <v>55770258</v>
       </c>
     </row>
@@ -16118,7 +16046,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="104">
+      <c r="E46" s="99">
         <v>30513017</v>
       </c>
     </row>
@@ -16129,7 +16057,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="104">
+      <c r="E47" s="99">
         <v>115418458</v>
       </c>
     </row>
@@ -16160,7 +16088,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="104">
+      <c r="E50" s="99">
         <v>470703138</v>
       </c>
     </row>
@@ -16171,7 +16099,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="104">
+      <c r="E51" s="99">
         <v>353109608</v>
       </c>
     </row>
@@ -16244,7 +16172,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="104">
+      <c r="E58" s="99">
         <v>50586239</v>
       </c>
     </row>
@@ -16255,7 +16183,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="104">
+      <c r="E59" s="99">
         <v>360148851</v>
       </c>
     </row>
@@ -16266,7 +16194,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="106">
+      <c r="E60" s="101">
         <v>75622759</v>
       </c>
     </row>
@@ -16286,7 +16214,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="104">
+      <c r="E62" s="99">
         <v>28478095</v>
       </c>
     </row>
@@ -16297,7 +16225,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="104">
+      <c r="E63" s="99">
         <v>266032060</v>
       </c>
     </row>
@@ -16328,7 +16256,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="104">
+      <c r="E66" s="99">
         <v>89208020</v>
       </c>
     </row>
@@ -16339,7 +16267,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="104">
+      <c r="E67" s="99">
         <v>299564844</v>
       </c>
     </row>
@@ -16350,7 +16278,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="104">
+      <c r="E68" s="99">
         <v>14120816</v>
       </c>
     </row>
@@ -16370,8 +16298,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="107">
-        <f>SUM(6142938+33070263)</f>
+      <c r="E70" s="102">
         <v>39213201</v>
       </c>
     </row>
@@ -16382,8 +16309,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="107">
-        <f>SUM(34039794+456292487+5135470)</f>
+      <c r="E71" s="102">
         <v>495467751</v>
       </c>
     </row>
@@ -16394,7 +16320,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="107">
+      <c r="E72" s="102">
         <v>118816211</v>
       </c>
     </row>
@@ -16435,7 +16361,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="104">
+      <c r="E76" s="99">
         <v>71747357</v>
       </c>
     </row>
@@ -16455,7 +16381,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="104">
+      <c r="E78" s="99">
         <v>114161558</v>
       </c>
     </row>
@@ -16466,7 +16392,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="108">
+      <c r="E79" s="103">
         <v>37733453</v>
       </c>
     </row>
@@ -16590,7 +16516,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="104">
+      <c r="E91" s="99">
         <v>316131944</v>
       </c>
     </row>
@@ -16611,7 +16537,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>4671034015</v>
       </c>
     </row>
@@ -16642,7 +16567,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="104">
+      <c r="E96" s="99">
         <v>7172882</v>
       </c>
       <c r="F96" s="10"/>
@@ -16668,7 +16593,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="104">
+      <c r="E98" s="99">
         <v>61507593</v>
       </c>
     </row>
@@ -16686,7 +16611,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="104">
+      <c r="E100" s="99">
         <v>155000</v>
       </c>
     </row>
@@ -16722,7 +16647,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="104">
+      <c r="E104" s="99">
         <v>0</v>
       </c>
     </row>
@@ -16740,7 +16665,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="104">
+      <c r="E106" s="99">
         <v>38476916</v>
       </c>
     </row>
@@ -16758,7 +16683,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="104">
+      <c r="E108" s="99">
         <v>111930048</v>
       </c>
     </row>
@@ -16777,8 +16702,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="104">
-        <f>SUM(27976095+33724238)</f>
+      <c r="E110" s="99">
         <v>61700333</v>
       </c>
     </row>
@@ -16787,7 +16711,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>280942772</v>
       </c>
     </row>
@@ -16799,7 +16722,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>4951976787</v>
       </c>
     </row>
@@ -16822,7 +16744,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="G31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16834,54 +16756,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -16895,22 +16817,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -17052,7 +16974,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="109">
+      <c r="E21" s="104">
         <v>887516988</v>
       </c>
     </row>
@@ -17136,7 +17058,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="109">
+      <c r="E29" s="104">
         <v>7856067</v>
       </c>
     </row>
@@ -17223,7 +17145,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>2356698831</v>
       </c>
     </row>
@@ -17268,7 +17189,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="110">
+      <c r="E42" s="105">
         <v>292779769</v>
       </c>
     </row>
@@ -17279,7 +17200,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="110">
+      <c r="E43" s="105">
         <v>680999653</v>
       </c>
     </row>
@@ -17290,7 +17211,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="110">
+      <c r="E44" s="105">
         <v>23321120</v>
       </c>
     </row>
@@ -17310,7 +17231,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="110">
+      <c r="E46" s="105">
         <v>83101800</v>
       </c>
     </row>
@@ -17321,7 +17242,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="110">
+      <c r="E47" s="105">
         <v>61198919</v>
       </c>
     </row>
@@ -17332,7 +17253,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="110">
+      <c r="E48" s="105">
         <v>0</v>
       </c>
     </row>
@@ -17343,7 +17264,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="110"/>
+      <c r="E49" s="105"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -17352,7 +17273,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="110">
+      <c r="E50" s="105">
         <v>96076365</v>
       </c>
     </row>
@@ -17363,7 +17284,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="110">
+      <c r="E51" s="105">
         <v>27475051</v>
       </c>
     </row>
@@ -17374,7 +17295,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="110">
+      <c r="E52" s="105">
         <v>0</v>
       </c>
     </row>
@@ -17385,7 +17306,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="110"/>
+      <c r="E53" s="105"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -17394,7 +17315,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="110">
+      <c r="E54" s="105">
         <v>2520222</v>
       </c>
     </row>
@@ -17405,7 +17326,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="110">
+      <c r="E55" s="105">
         <v>0</v>
       </c>
     </row>
@@ -17416,7 +17337,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="110">
+      <c r="E56" s="105">
         <v>0</v>
       </c>
     </row>
@@ -17427,7 +17348,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="110"/>
+      <c r="E57" s="105"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -17436,7 +17357,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="110">
+      <c r="E58" s="105">
         <v>94468457</v>
       </c>
     </row>
@@ -17447,7 +17368,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="110">
+      <c r="E59" s="105">
         <v>216816493</v>
       </c>
     </row>
@@ -17458,7 +17379,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="110">
+      <c r="E60" s="105">
         <v>0</v>
       </c>
     </row>
@@ -17469,7 +17390,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="110"/>
+      <c r="E61" s="105"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -17478,7 +17399,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="110">
+      <c r="E62" s="105">
         <v>10746607</v>
       </c>
     </row>
@@ -17489,7 +17410,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="110">
+      <c r="E63" s="105">
         <v>41727676</v>
       </c>
     </row>
@@ -17500,7 +17421,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="110">
+      <c r="E64" s="105">
         <v>0</v>
       </c>
     </row>
@@ -17511,7 +17432,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="110"/>
+      <c r="E65" s="105"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -17520,7 +17441,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="110">
+      <c r="E66" s="105">
         <v>125738189</v>
       </c>
     </row>
@@ -17531,7 +17452,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="110">
+      <c r="E67" s="105">
         <v>35101305</v>
       </c>
     </row>
@@ -17542,7 +17463,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="110">
+      <c r="E68" s="105">
         <v>1150000</v>
       </c>
     </row>
@@ -17562,7 +17483,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="110">
+      <c r="E70" s="105">
         <v>10917579</v>
       </c>
     </row>
@@ -17573,7 +17494,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="110">
+      <c r="E71" s="105">
         <v>21000</v>
       </c>
     </row>
@@ -17613,7 +17534,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="110">
+      <c r="E75" s="105">
         <v>25074741</v>
       </c>
     </row>
@@ -17644,7 +17565,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="110">
+      <c r="E78" s="105">
         <v>42356043</v>
       </c>
     </row>
@@ -17655,7 +17576,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="110">
+      <c r="E79" s="105">
         <v>58337710</v>
       </c>
     </row>
@@ -17675,8 +17596,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="110">
-        <f>SUM(18083568+2533527)</f>
+      <c r="E81" s="105">
         <v>20617095</v>
       </c>
     </row>
@@ -17687,7 +17607,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="110">
+      <c r="E82" s="105">
         <v>60754153</v>
       </c>
     </row>
@@ -17738,7 +17658,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="110">
+      <c r="E87" s="105">
         <v>20000000</v>
       </c>
     </row>
@@ -17780,7 +17700,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="110">
+      <c r="E91" s="105">
         <v>107477337</v>
       </c>
     </row>
@@ -17791,7 +17711,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="110">
+      <c r="E92" s="105">
         <v>6565615</v>
       </c>
     </row>
@@ -17801,7 +17721,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>2145342899</v>
       </c>
     </row>
@@ -17832,7 +17751,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="110">
+      <c r="E96" s="105">
         <v>20019286</v>
       </c>
       <c r="F96" s="10"/>
@@ -17876,7 +17795,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="110">
+      <c r="E100" s="105">
         <v>220826</v>
       </c>
     </row>
@@ -17912,7 +17831,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="110">
+      <c r="E104" s="105">
         <v>605500</v>
       </c>
     </row>
@@ -17948,7 +17867,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="110">
+      <c r="E108" s="105">
         <v>56047543</v>
       </c>
     </row>
@@ -17967,8 +17886,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="111">
-        <f>SUM(17210637+45225289+3462250)</f>
+      <c r="E110" s="106">
         <v>65898176</v>
       </c>
     </row>
@@ -17977,7 +17895,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>142791331</v>
       </c>
     </row>
@@ -17989,7 +17906,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>2288134230</v>
       </c>
     </row>
@@ -18023,54 +17939,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -18084,22 +18000,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -18135,7 +18051,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="112">
+      <c r="E11" s="107">
         <v>516010603.30000001</v>
       </c>
     </row>
@@ -18157,7 +18073,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="107">
         <v>2181857942.8400002</v>
       </c>
     </row>
@@ -18189,7 +18105,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="108">
         <v>459079184</v>
       </c>
     </row>
@@ -18200,7 +18116,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="107">
         <v>459326797</v>
       </c>
     </row>
@@ -18211,7 +18127,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="112">
+      <c r="E18" s="107">
         <v>8916424.0899999999</v>
       </c>
     </row>
@@ -18222,7 +18138,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="114">
+      <c r="E19" s="109">
         <v>927322405</v>
       </c>
     </row>
@@ -18242,7 +18158,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="112">
+      <c r="E21" s="107">
         <v>978908883</v>
       </c>
     </row>
@@ -18253,7 +18169,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="112">
+      <c r="E22" s="107">
         <v>6018591</v>
       </c>
     </row>
@@ -18264,7 +18180,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="107"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -18273,7 +18189,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="112">
+      <c r="E24" s="107">
         <v>217060323</v>
       </c>
     </row>
@@ -18326,7 +18242,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="112">
+      <c r="E29" s="107">
         <v>2962737.57</v>
       </c>
     </row>
@@ -18337,7 +18253,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="112">
+      <c r="E30" s="107">
         <v>222925159</v>
       </c>
     </row>
@@ -18348,7 +18264,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="114">
+      <c r="E31" s="109">
         <v>0</v>
       </c>
     </row>
@@ -18458,7 +18374,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="112">
+      <c r="E42" s="107">
         <v>499435638</v>
       </c>
     </row>
@@ -18469,7 +18385,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="112">
+      <c r="E43" s="107">
         <v>775945328</v>
       </c>
     </row>
@@ -18480,7 +18396,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="112">
+      <c r="E44" s="107">
         <v>17392779</v>
       </c>
     </row>
@@ -18500,7 +18416,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="112">
+      <c r="E46" s="107">
         <v>34049063</v>
       </c>
     </row>
@@ -18511,7 +18427,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="112">
+      <c r="E47" s="107">
         <v>211454898.77000001</v>
       </c>
     </row>
@@ -18522,7 +18438,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="112">
+      <c r="E48" s="107">
         <v>2455750</v>
       </c>
     </row>
@@ -18542,7 +18458,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="112">
+      <c r="E50" s="107">
         <v>152518504</v>
       </c>
     </row>
@@ -18553,7 +18469,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="112">
+      <c r="E51" s="107">
         <v>674547142.20000005</v>
       </c>
     </row>
@@ -18564,7 +18480,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="112">
+      <c r="E52" s="107">
         <v>2126874</v>
       </c>
     </row>
@@ -18584,7 +18500,7 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="112">
+      <c r="E54" s="107">
         <v>5575023.9100000001</v>
       </c>
     </row>
@@ -18595,7 +18511,7 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="112">
+      <c r="E55" s="107">
         <v>12986003.880000001</v>
       </c>
     </row>
@@ -18606,7 +18522,7 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="112">
+      <c r="E56" s="107">
         <v>187040</v>
       </c>
     </row>
@@ -18626,7 +18542,7 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="112">
+      <c r="E58" s="107">
         <v>55968517.039999999</v>
       </c>
     </row>
@@ -18637,7 +18553,7 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="112">
+      <c r="E59" s="107">
         <v>255037569</v>
       </c>
     </row>
@@ -18648,7 +18564,7 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="112">
+      <c r="E60" s="107">
         <v>54330</v>
       </c>
     </row>
@@ -18668,7 +18584,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="112">
+      <c r="E62" s="107">
         <v>71249466.049999997</v>
       </c>
     </row>
@@ -18679,7 +18595,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="112">
+      <c r="E63" s="107">
         <v>242166225</v>
       </c>
     </row>
@@ -18690,7 +18606,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="112">
+      <c r="E64" s="107">
         <v>2095548</v>
       </c>
     </row>
@@ -18710,7 +18626,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="112">
+      <c r="E66" s="107">
         <v>184278689.96000001</v>
       </c>
     </row>
@@ -18721,7 +18637,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="112">
+      <c r="E67" s="107">
         <v>187116122</v>
       </c>
     </row>
@@ -18732,7 +18648,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="112">
+      <c r="E68" s="107">
         <v>195628944.72</v>
       </c>
     </row>
@@ -18803,7 +18719,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="112">
+      <c r="E75" s="107">
         <v>12018325</v>
       </c>
     </row>
@@ -18814,7 +18730,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="112">
+      <c r="E76" s="107">
         <v>0</v>
       </c>
     </row>
@@ -18834,7 +18750,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="112">
+      <c r="E78" s="107">
         <v>48707384.289999999</v>
       </c>
     </row>
@@ -18845,7 +18761,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="112">
+      <c r="E79" s="107">
         <v>6279000</v>
       </c>
     </row>
@@ -18876,7 +18792,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="114">
+      <c r="E82" s="109">
         <v>21932650</v>
       </c>
     </row>
@@ -18969,7 +18885,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="112">
+      <c r="E91" s="107">
         <v>144232957.94999999</v>
       </c>
     </row>
@@ -18980,7 +18896,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="112">
+      <c r="E92" s="107">
         <v>18484820.379999999</v>
       </c>
     </row>
@@ -19021,7 +18937,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="112">
+      <c r="E96" s="107">
         <v>113060995.27</v>
       </c>
       <c r="F96" s="10"/>
@@ -19199,7 +19115,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="G24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19211,54 +19127,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -19272,22 +19188,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="89" t="s">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -19323,7 +19239,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="93">
         <v>144004675.99000001</v>
       </c>
     </row>
@@ -19334,7 +19250,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="93">
         <v>261496874.11000001</v>
       </c>
     </row>
@@ -19345,8 +19261,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="98">
-        <f>SUM(2757360.16+15576149.02+1408678.63+100468613.99)</f>
+      <c r="E13" s="93">
         <v>120210801.8</v>
       </c>
     </row>
@@ -19358,7 +19273,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>525712351.90000004</v>
       </c>
     </row>
@@ -19378,7 +19292,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="93">
         <v>36049416.039999999</v>
       </c>
     </row>
@@ -19389,7 +19303,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="93">
         <v>115839932.42</v>
       </c>
     </row>
@@ -19400,7 +19314,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="93">
         <v>30736007.300000001</v>
       </c>
     </row>
@@ -19412,7 +19326,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>182625355.76000002</v>
       </c>
     </row>
@@ -19432,7 +19345,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="98">
+      <c r="E21" s="93">
         <v>584258976</v>
       </c>
     </row>
@@ -19443,7 +19356,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="98">
+      <c r="E22" s="93">
         <v>1023960</v>
       </c>
     </row>
@@ -19485,7 +19398,7 @@
       <c r="D26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="98">
+      <c r="E26" s="93">
         <v>48485222.140000001</v>
       </c>
     </row>
@@ -19527,8 +19440,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="98">
-        <f>SUM(2305407.56+1514924.13+170024179+1427.5)</f>
+      <c r="E30" s="93">
         <v>173845938.19</v>
       </c>
     </row>
@@ -19559,7 +19471,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="98">
+      <c r="E33" s="93">
         <v>0</v>
       </c>
     </row>
@@ -19570,7 +19482,7 @@
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="98">
+      <c r="E34" s="93">
         <v>511000</v>
       </c>
     </row>
@@ -19604,7 +19516,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1516462803.9900002</v>
       </c>
     </row>
@@ -19649,7 +19560,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="124">
+      <c r="E42" s="119">
         <v>141918717.31999999</v>
       </c>
     </row>
@@ -19660,7 +19571,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="124">
+      <c r="E43" s="119">
         <v>372385752.94</v>
       </c>
     </row>
@@ -19671,7 +19582,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="124">
+      <c r="E44" s="119">
         <v>46707501.119999997</v>
       </c>
     </row>
@@ -19682,7 +19593,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="124"/>
+      <c r="E45" s="119"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -19691,7 +19602,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="124">
+      <c r="E46" s="119">
         <v>7170262.6399999997</v>
       </c>
     </row>
@@ -19702,7 +19613,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="98">
+      <c r="E47" s="93">
         <v>65506076.530000001</v>
       </c>
     </row>
@@ -19713,7 +19624,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="124">
+      <c r="E48" s="119">
         <v>29589338.199999999</v>
       </c>
     </row>
@@ -19724,7 +19635,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="124"/>
+      <c r="E49" s="119"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -19733,7 +19644,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="124">
+      <c r="E50" s="119">
         <v>81573209.879999995</v>
       </c>
     </row>
@@ -19744,7 +19655,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="98">
+      <c r="E51" s="93">
         <v>103282168.91</v>
       </c>
     </row>
@@ -19755,7 +19666,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="124">
+      <c r="E52" s="119">
         <v>5105306.3</v>
       </c>
     </row>
@@ -19859,7 +19770,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="124">
+      <c r="E62" s="119">
         <v>8120243.1500000004</v>
       </c>
     </row>
@@ -19870,7 +19781,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="98">
+      <c r="E63" s="93">
         <v>31352453.550000001</v>
       </c>
     </row>
@@ -19881,7 +19792,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="124">
+      <c r="E64" s="119">
         <v>2372989</v>
       </c>
     </row>
@@ -19892,7 +19803,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="124"/>
+      <c r="E65" s="119"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -19901,7 +19812,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="124">
+      <c r="E66" s="119">
         <v>21056614.719999999</v>
       </c>
     </row>
@@ -19912,7 +19823,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="98">
+      <c r="E67" s="93">
         <v>74148157.299999997</v>
       </c>
     </row>
@@ -19923,7 +19834,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="124">
+      <c r="E68" s="119">
         <v>23112807.309999999</v>
       </c>
     </row>
@@ -19994,7 +19905,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="124">
+      <c r="E75" s="119">
         <v>49334594.840000004</v>
       </c>
     </row>
@@ -20025,7 +19936,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="124">
+      <c r="E78" s="119">
         <v>2838146.14</v>
       </c>
     </row>
@@ -20036,7 +19947,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="124">
+      <c r="E79" s="119">
         <v>3548859.87</v>
       </c>
     </row>
@@ -20067,7 +19978,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="124">
+      <c r="E82" s="119">
         <v>62544684.079999998</v>
       </c>
     </row>
@@ -20109,7 +20020,7 @@
         <v>56</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="96"/>
+      <c r="E86" s="91"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -20118,8 +20029,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="124">
-        <f>SUM(553008.97+790743.39)</f>
+      <c r="E87" s="119">
         <v>1343752.3599999999</v>
       </c>
     </row>
@@ -20130,7 +20040,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="124">
+      <c r="E88" s="119">
         <v>100000</v>
       </c>
     </row>
@@ -20150,7 +20060,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="124">
+      <c r="E90" s="119">
         <v>9032233.0399999991</v>
       </c>
     </row>
@@ -20161,7 +20071,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="124">
+      <c r="E91" s="119">
         <v>22202000</v>
       </c>
     </row>
@@ -20182,7 +20092,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>1164345869.1999996</v>
       </c>
     </row>
@@ -20213,7 +20122,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="124">
+      <c r="E96" s="119">
         <v>26240874.600000001</v>
       </c>
       <c r="F96" s="10"/>
@@ -20239,7 +20148,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="98">
+      <c r="E98" s="93">
         <v>23901917.469999999</v>
       </c>
     </row>
@@ -20257,7 +20166,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="98">
+      <c r="E100" s="93">
         <v>313080.81</v>
       </c>
     </row>
@@ -20311,7 +20220,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="124">
+      <c r="E106" s="119">
         <v>1770450</v>
       </c>
     </row>
@@ -20329,7 +20238,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="124">
+      <c r="E108" s="119">
         <v>5257152.26</v>
       </c>
     </row>
@@ -20350,7 +20259,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="36">
-        <f>SUM(18476000.89+43573332.8)</f>
         <v>62049333.689999998</v>
       </c>
     </row>
@@ -20359,7 +20267,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="42">
-        <f>SUM(E95:E110)</f>
         <v>119532808.83</v>
       </c>
     </row>
@@ -20371,7 +20278,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>1283878678.0299995</v>
       </c>
     </row>
